--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="101">
   <si>
     <t>Activity</t>
   </si>
@@ -114,9 +114,6 @@
     <t>ecoinvent</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere</t>
-  </si>
-  <si>
     <t>RWGS tank construction</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Hydrogen, gaseous, 25 bar</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
-  </si>
-  <si>
     <t>Fixed bed reactor for RWGS</t>
   </si>
   <si>
@@ -322,6 +316,15 @@
   </si>
   <si>
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, from soil or boimass stock</t>
+  </si>
+  <si>
+    <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
+The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
+However, this means we need to reduce here the amount of CO2 sequestered during H2 production, as it effectively ends up in the fuel instead.
+We do that by adding a corresponding CO2 emission.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +423,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K575"/>
+  <dimension ref="A1:K574"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -787,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -831,13 +837,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
@@ -848,7 +854,7 @@
     </row>
     <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -869,15 +875,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="10">
         <v>1.00057</v>
@@ -897,7 +903,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -927,13 +933,13 @@
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
@@ -947,18 +953,18 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>20</v>
@@ -972,12 +978,12 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="15">
         <v>1.04E-10</v>
@@ -997,18 +1003,18 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
@@ -1022,18 +1028,18 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
@@ -1047,18 +1053,18 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -1072,21 +1078,21 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
@@ -1097,12 +1103,12 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1111,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
@@ -1122,18 +1128,18 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B22" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>25</v>
@@ -1147,7 +1153,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1160,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1184,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1228,13 +1234,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>9</v>
@@ -1245,7 +1251,7 @@
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
@@ -1266,15 +1272,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="10">
         <v>1.00057</v>
@@ -1294,7 +1300,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1324,13 +1330,13 @@
     </row>
     <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>6</v>
@@ -1344,18 +1350,18 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>20</v>
@@ -1369,12 +1375,12 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" s="15">
         <v>2.5999999999999998E-10</v>
@@ -1394,18 +1400,18 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>6</v>
@@ -1419,18 +1425,18 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>25</v>
@@ -1444,18 +1450,18 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>6</v>
@@ -1469,21 +1475,21 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
@@ -1494,12 +1500,12 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1508,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
@@ -1519,18 +1525,18 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>25</v>
@@ -1544,7 +1550,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1557,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1581,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1625,13 +1631,13 @@
         <v>3</v>
       </c>
       <c r="G52" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>9</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
@@ -1663,15 +1669,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" s="10">
         <v>1.00057</v>
@@ -1691,7 +1697,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1721,13 +1727,13 @@
     </row>
     <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>6</v>
@@ -1741,18 +1747,18 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>20</v>
@@ -1766,12 +1772,12 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" s="15">
         <v>1.04E-10</v>
@@ -1791,18 +1797,18 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>6</v>
@@ -1816,18 +1822,18 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>25</v>
@@ -1841,18 +1847,18 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -1866,21 +1872,21 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B62" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
@@ -1891,12 +1897,12 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B63" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1905,7 +1911,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
@@ -1916,18 +1922,18 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>25</v>
@@ -1941,7 +1947,7 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1954,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1978,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2022,13 +2028,13 @@
         <v>3</v>
       </c>
       <c r="G73" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>9</v>
@@ -2039,7 +2045,7 @@
     </row>
     <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="10">
         <v>1</v>
@@ -2060,15 +2066,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" s="10">
         <v>1.00057</v>
@@ -2088,7 +2094,7 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2118,13 +2124,13 @@
     </row>
     <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>6</v>
@@ -2138,18 +2144,18 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>20</v>
@@ -2163,12 +2169,12 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B79" s="15">
         <v>2.5999999999999998E-10</v>
@@ -2188,18 +2194,18 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B80" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>6</v>
@@ -2213,18 +2219,18 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B81" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>25</v>
@@ -2238,18 +2244,18 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B82" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>6</v>
@@ -2263,21 +2269,21 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B83" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
@@ -2288,12 +2294,12 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B84" s="10">
         <v>3.2599999999999997E-2</v>
@@ -2302,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
@@ -2313,18 +2319,18 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>25</v>
@@ -2338,7 +2344,7 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2351,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2367,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2399,15 +2405,15 @@
         <v>9</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2446,7 +2452,7 @@
     </row>
     <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B97" s="9">
         <v>1</v>
@@ -2461,10 +2467,10 @@
         <v>15</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>16</v>
@@ -2472,7 +2478,7 @@
     </row>
     <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" s="9">
         <v>0.73</v>
@@ -2490,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2535,13 +2541,13 @@
     </row>
     <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B101" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>5</v>
@@ -2550,10 +2556,10 @@
         <v>18</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2581,7 +2587,7 @@
     </row>
     <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B103" s="9">
         <v>2</v>
@@ -2590,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>22</v>
@@ -2605,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2621,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2653,15 +2659,15 @@
         <v>9</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2700,7 +2706,7 @@
     </row>
     <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B115" s="9">
         <v>1</v>
@@ -2715,15 +2721,15 @@
         <v>15</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B116" s="9">
         <v>0.65</v>
@@ -2741,7 +2747,7 @@
         <v>17</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2786,13 +2792,13 @@
     </row>
     <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B119" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>5</v>
@@ -2801,10 +2807,10 @@
         <v>18</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2832,7 +2838,7 @@
     </row>
     <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B121" s="9">
         <v>2.48</v>
@@ -2841,7 +2847,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>22</v>
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2872,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2904,15 +2910,15 @@
         <v>9</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2951,7 +2957,7 @@
     </row>
     <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B133" s="9">
         <v>1</v>
@@ -2966,10 +2972,10 @@
         <v>15</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>16</v>
@@ -2977,7 +2983,7 @@
     </row>
     <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B134" s="9">
         <v>0.98</v>
@@ -2995,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3040,13 +3046,13 @@
     </row>
     <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B137" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>5</v>
@@ -3055,10 +3061,10 @@
         <v>18</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3086,7 +3092,7 @@
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B139" s="9">
         <v>1.82</v>
@@ -3095,7 +3101,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>22</v>
@@ -3110,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3126,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3158,15 +3164,15 @@
         <v>9</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3205,7 +3211,7 @@
     </row>
     <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B151" s="9">
         <v>1</v>
@@ -3220,10 +3226,10 @@
         <v>15</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>16</v>
@@ -3231,7 +3237,7 @@
     </row>
     <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B152" s="9">
         <v>2.1</v>
@@ -3249,7 +3255,7 @@
         <v>17</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3294,13 +3300,13 @@
     </row>
     <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B155" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>5</v>
@@ -3309,10 +3315,10 @@
         <v>18</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3340,7 +3346,7 @@
     </row>
     <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B157" s="9">
         <v>0.13</v>
@@ -3366,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3382,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3414,15 +3420,15 @@
         <v>9</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3461,7 +3467,7 @@
     </row>
     <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B169" s="9">
         <v>1</v>
@@ -3476,10 +3482,10 @@
         <v>15</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>16</v>
@@ -3487,7 +3493,7 @@
     </row>
     <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B170" s="9">
         <v>2.35</v>
@@ -3505,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3550,13 +3556,13 @@
     </row>
     <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B173" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>5</v>
@@ -3565,10 +3571,10 @@
         <v>18</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3596,7 +3602,7 @@
     </row>
     <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B175" s="9">
         <v>0.22</v>
@@ -3620,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3636,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3668,15 +3674,15 @@
         <v>9</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3715,7 +3721,7 @@
     </row>
     <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B187" s="9">
         <v>1</v>
@@ -3730,15 +3736,15 @@
         <v>15</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B188" s="9">
         <v>2.3199999999999998</v>
@@ -3756,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3801,13 +3807,13 @@
     </row>
     <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B191" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>5</v>
@@ -3816,10 +3822,10 @@
         <v>18</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3847,7 +3853,7 @@
     </row>
     <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B193" s="9">
         <v>0.19</v>
@@ -3856,7 +3862,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>22</v>
@@ -3871,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3887,7 +3893,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3919,15 +3925,15 @@
         <v>9</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3966,7 +3972,7 @@
     </row>
     <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B205" s="9">
         <v>1</v>
@@ -3981,10 +3987,10 @@
         <v>15</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I205" s="9" t="s">
         <v>16</v>
@@ -3992,7 +3998,7 @@
     </row>
     <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B206" s="9">
         <v>2.2599999999999998</v>
@@ -4010,7 +4016,7 @@
         <v>17</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4055,13 +4061,13 @@
     </row>
     <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B209" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>5</v>
@@ -4070,10 +4076,10 @@
         <v>18</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4101,7 +4107,7 @@
     </row>
     <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B211" s="9">
         <v>0.06</v>
@@ -4110,7 +4116,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>22</v>
@@ -4125,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4173,15 +4179,15 @@
         <v>9</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4214,7 +4220,7 @@
     </row>
     <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B223" s="9">
         <v>0.875</v>
@@ -4229,12 +4235,12 @@
         <v>18</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B224" s="9">
         <v>0.125</v>
@@ -4249,7 +4255,7 @@
         <v>18</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4292,7 +4298,7 @@
     </row>
     <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B227" s="9">
         <v>1</v>
@@ -4312,13 +4318,13 @@
     </row>
     <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B228" s="13">
         <v>5.7100000000000004E-6</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>5</v>
@@ -4335,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4351,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4378,12 +4384,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B236" s="9" t="s">
-        <v>34</v>
+      <c r="B236" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4416,7 +4422,7 @@
     </row>
     <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B239" s="9">
         <v>1</v>
@@ -4431,12 +4437,12 @@
         <v>15</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B240" s="9">
         <v>7.0000000000000007E-2</v>
@@ -4451,421 +4457,414 @@
         <v>18</v>
       </c>
       <c r="G240" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A241" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B241" s="9">
-        <v>1.57</v>
+      <c r="B241" s="11">
+        <v>1.9300000000000002E-9</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G241" s="12" t="s">
+      <c r="G241" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B242" s="11">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>8</v>
+        <v>1.57</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="10"/>
-      <c r="B243" s="11"/>
-      <c r="G243" s="10"/>
-    </row>
-    <row r="245" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A245" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="G242" s="10"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B252" s="3"/>
-    </row>
-    <row r="254" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A254" s="1"/>
-      <c r="B254" s="2"/>
-    </row>
-    <row r="261" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A264" s="4"/>
-      <c r="G264" s="4"/>
+    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="4"/>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B267" s="5"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B269" s="5"/>
-    </row>
-    <row r="270" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A270" s="1"/>
-      <c r="B270" s="2"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B272" s="6"/>
-    </row>
-    <row r="277" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="6"/>
-      <c r="G279" s="6"/>
+    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="2"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B271" s="6"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="6"/>
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="4"/>
+      <c r="G279" s="4"/>
     </row>
     <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A281" s="4"/>
-      <c r="G281" s="4"/>
-    </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A284" s="1"/>
-      <c r="B284" s="2"/>
-    </row>
-    <row r="291" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A291" s="1"/>
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2"/>
+    </row>
+    <row r="290" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="3"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B298" s="3"/>
-    </row>
-    <row r="300" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A300" s="1"/>
-      <c r="B300" s="2"/>
-    </row>
-    <row r="307" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A310" s="4"/>
-      <c r="G310" s="4"/>
+    <row r="299" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="2"/>
+    </row>
+    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="4"/>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B315" s="5"/>
-    </row>
-    <row r="316" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A316" s="1"/>
-      <c r="B316" s="2"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B318" s="6"/>
-    </row>
-    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325" s="6"/>
-      <c r="G325" s="6"/>
+    <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="2"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B317" s="6"/>
+    </row>
+    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="6"/>
+      <c r="G324" s="6"/>
+    </row>
+    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="4"/>
+      <c r="G325" s="4"/>
     </row>
     <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A327" s="4"/>
-      <c r="G327" s="4"/>
-    </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A330" s="1"/>
-      <c r="B330" s="2"/>
-    </row>
-    <row r="337" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A337" s="1"/>
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+      <c r="B329" s="2"/>
+    </row>
+    <row r="336" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B342" s="3"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B344" s="3"/>
-    </row>
-    <row r="346" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A346" s="1"/>
-      <c r="B346" s="2"/>
-    </row>
-    <row r="353" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A356" s="4"/>
-      <c r="G356" s="4"/>
+    <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+      <c r="B345" s="2"/>
+    </row>
+    <row r="352" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A355" s="4"/>
+      <c r="G355" s="4"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B359" s="5"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B361" s="5"/>
-    </row>
-    <row r="362" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A362" s="1"/>
-      <c r="B362" s="2"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B364" s="6"/>
-    </row>
-    <row r="369" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371" s="6"/>
-      <c r="G371" s="6"/>
+    <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="2"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B363" s="6"/>
+    </row>
+    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="6"/>
+      <c r="G370" s="6"/>
+    </row>
+    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A371" s="4"/>
+      <c r="G371" s="4"/>
     </row>
     <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="4"/>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A373" s="4"/>
-      <c r="G373" s="4"/>
-    </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A376" s="1"/>
-      <c r="B376" s="2"/>
-    </row>
-    <row r="383" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A383" s="1"/>
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="2"/>
+    </row>
+    <row r="382" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B388" s="3"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B390" s="3"/>
-    </row>
-    <row r="392" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A392" s="1"/>
-      <c r="B392" s="2"/>
-    </row>
-    <row r="399" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A402" s="4"/>
-      <c r="G402" s="4"/>
+    <row r="391" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A391" s="1"/>
+      <c r="B391" s="2"/>
+    </row>
+    <row r="398" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="4"/>
+      <c r="G401" s="4"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B405" s="5"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B406" s="5"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B407" s="5"/>
-    </row>
-    <row r="408" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A408" s="1"/>
-      <c r="B408" s="2"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B410" s="6"/>
-    </row>
-    <row r="415" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A417" s="6"/>
-      <c r="G417" s="6"/>
+    <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A407" s="1"/>
+      <c r="B407" s="2"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B409" s="6"/>
+    </row>
+    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416" s="6"/>
+      <c r="G416" s="6"/>
+    </row>
+    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="4"/>
+      <c r="G417" s="4"/>
     </row>
     <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A419" s="4"/>
-      <c r="G419" s="4"/>
-    </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A422" s="1"/>
-      <c r="B422" s="2"/>
-    </row>
-    <row r="429" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A429" s="1"/>
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A421" s="1"/>
+      <c r="B421" s="2"/>
+    </row>
+    <row r="428" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B434" s="3"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B435" s="3"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B436" s="3"/>
-    </row>
-    <row r="438" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A438" s="1"/>
-      <c r="B438" s="2"/>
-    </row>
-    <row r="445" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="448" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A448" s="4"/>
-      <c r="G448" s="4"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B452" s="5"/>
-    </row>
-    <row r="454" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A454" s="1"/>
-      <c r="B454" s="2"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B456" s="6"/>
-    </row>
-    <row r="461" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A463" s="6"/>
-      <c r="G463" s="6"/>
+    <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A437" s="1"/>
+      <c r="B437" s="2"/>
+    </row>
+    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="447" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="4"/>
+      <c r="G447" s="4"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B451" s="5"/>
+    </row>
+    <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A453" s="1"/>
+      <c r="B453" s="2"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B455" s="6"/>
+    </row>
+    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A462" s="6"/>
+      <c r="G462" s="6"/>
+    </row>
+    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A463" s="4"/>
+      <c r="G463" s="4"/>
     </row>
     <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="4"/>
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A465" s="4"/>
-      <c r="G465" s="4"/>
-    </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A467" s="1"/>
-      <c r="B467" s="2"/>
-    </row>
-    <row r="474" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="1"/>
+      <c r="B466" s="2"/>
+    </row>
+    <row r="473" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B479" s="3"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B480" s="3"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B481" s="3"/>
-    </row>
-    <row r="483" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A483" s="1"/>
-      <c r="B483" s="2"/>
-    </row>
-    <row r="490" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A493" s="4"/>
-      <c r="G493" s="4"/>
+    <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A482" s="1"/>
+      <c r="B482" s="2"/>
+    </row>
+    <row r="489" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A489" s="1"/>
+    </row>
+    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A492" s="4"/>
+      <c r="G492" s="4"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B496" s="5"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B497" s="5"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B498" s="5"/>
-    </row>
-    <row r="499" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A499" s="1"/>
-      <c r="B499" s="2"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B501" s="6"/>
-    </row>
-    <row r="506" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A506" s="1"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A508" s="6"/>
-      <c r="G508" s="6"/>
+    <row r="498" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A498" s="1"/>
+      <c r="B498" s="2"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B500" s="6"/>
+    </row>
+    <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A507" s="6"/>
+      <c r="G507" s="6"/>
+    </row>
+    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A508" s="4"/>
+      <c r="G508" s="4"/>
     </row>
     <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="4"/>
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A510" s="4"/>
-      <c r="G510" s="4"/>
-    </row>
-    <row r="513" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A513" s="1"/>
-      <c r="B513" s="2"/>
-    </row>
-    <row r="520" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A520" s="1"/>
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A512" s="1"/>
+      <c r="B512" s="2"/>
+    </row>
+    <row r="519" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A519" s="1"/>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B525" s="3"/>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B526" s="3"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B527" s="3"/>
-    </row>
-    <row r="529" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A529" s="1"/>
-      <c r="B529" s="2"/>
-    </row>
-    <row r="536" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A536" s="1"/>
-    </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A539" s="4"/>
-      <c r="G539" s="4"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B543" s="5"/>
-    </row>
-    <row r="545" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A545" s="1"/>
-      <c r="B545" s="2"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B547" s="6"/>
-    </row>
-    <row r="552" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A552" s="1"/>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A554" s="6"/>
-      <c r="G554" s="6"/>
+    <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A528" s="1"/>
+      <c r="B528" s="2"/>
+    </row>
+    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A535" s="1"/>
+    </row>
+    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A538" s="4"/>
+      <c r="G538" s="4"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B542" s="5"/>
+    </row>
+    <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A544" s="1"/>
+      <c r="B544" s="2"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B546" s="6"/>
+    </row>
+    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A551" s="1"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553" s="6"/>
+      <c r="G553" s="6"/>
+    </row>
+    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="4"/>
+      <c r="G554" s="4"/>
     </row>
     <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="4"/>
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A556" s="4"/>
-      <c r="G556" s="4"/>
-    </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A558" s="1"/>
-      <c r="B558" s="2"/>
-    </row>
-    <row r="564" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A564" s="1"/>
-    </row>
-    <row r="569" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A569" s="1"/>
-      <c r="B569" s="2"/>
-    </row>
-    <row r="575" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A575" s="1"/>
+    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A557" s="1"/>
+      <c r="B557" s="2"/>
+    </row>
+    <row r="563" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A563" s="1"/>
+    </row>
+    <row r="568" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A568" s="1"/>
+      <c r="B568" s="2"/>
+    </row>
+    <row r="574" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A574" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, from soil or boimass stock</t>
   </si>
   <si>
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
@@ -742,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4389,7 +4386,7 @@
         <v>9</v>
       </c>
       <c r="B236" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4482,7 +4479,7 @@
     </row>
     <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B242" s="11">
         <v>1.57</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -420,9 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K574"/>
+  <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,134 +1151,129 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="16"/>
-      <c r="G23" s="12"/>
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="15">
+        <f>(B12-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="10">
         <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10">
-        <v>100</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1.00057</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>8</v>
@@ -1290,28 +1283,32 @@
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="s">
-        <v>35</v>
+      <c r="I33" s="10">
+        <v>100</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>27</v>
+      <c r="A34" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="B34" s="10">
-        <v>6.7000000000000002E-3</v>
+        <v>1.00057</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
@@ -1322,21 +1319,21 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>63</v>
+      <c r="A35" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B35" s="10">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>58</v>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
@@ -1347,21 +1344,21 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="15">
-        <v>5.8399999999999999E-4</v>
+        <v>63</v>
+      </c>
+      <c r="B36" s="10">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
@@ -1372,21 +1369,21 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" s="15">
-        <v>2.5999999999999998E-10</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
@@ -1397,21 +1394,21 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10" t="s">
@@ -1422,21 +1419,21 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="15">
-        <v>-7.4999999999999993E-5</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
@@ -1447,21 +1444,21 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>6</v>
+      <c r="D40" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
@@ -1472,21 +1469,21 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>73</v>
+      </c>
+      <c r="B41" s="15">
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
@@ -1497,18 +1494,18 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>76</v>
@@ -1522,21 +1519,21 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>78</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
@@ -1547,190 +1544,189 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="16"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="15">
+        <f>(B34-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="16"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>83</v>
+      <c r="B48" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K54" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B55" s="10">
         <v>1</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10">
-        <v>100</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="10">
-        <v>1.00057</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="10">
-        <v>6.7000000000000002E-3</v>
-      </c>
       <c r="C55" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10" t="s">
-        <v>29</v>
+      <c r="I55" s="10">
+        <v>100</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="15">
-        <v>1.8499999999999999E-5</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1.00057</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>6</v>
@@ -1744,21 +1740,21 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="15">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>57</v>
+      <c r="A57" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10" t="s">
@@ -1769,21 +1765,21 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B58" s="15">
-        <v>1.04E-10</v>
+        <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
@@ -1794,21 +1790,21 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B59" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
@@ -1819,21 +1815,21 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B60" s="15">
-        <v>-5.0000000000000002E-5</v>
+        <v>1.04E-10</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
@@ -1844,18 +1840,18 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -1869,21 +1865,21 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>71</v>
+      </c>
+      <c r="B62" s="15">
+        <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>76</v>
+      <c r="D62" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
@@ -1894,21 +1890,21 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>73</v>
+      </c>
+      <c r="B63" s="15">
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
@@ -1919,21 +1915,21 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>75</v>
+      </c>
+      <c r="B64" s="10">
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
@@ -1944,218 +1940,217 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="10">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="16"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="15">
+        <f>(B56-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="12"/>
+      <c r="B68" s="16"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B71" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>10</v>
+      <c r="A72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="10">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10">
-        <v>100</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="10">
-        <v>1.00057</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10" t="s">
-        <v>35</v>
+      <c r="B74" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="10">
-        <v>6.7000000000000002E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B77" s="10">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10" t="s">
-        <v>64</v>
+      <c r="I77" s="10">
+        <v>100</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="15">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="B78" s="10">
+        <v>1.00057</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
@@ -2166,21 +2161,21 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="15">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="A79" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
@@ -2191,18 +2186,18 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>63</v>
+      </c>
+      <c r="B80" s="10">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>6</v>
@@ -2216,21 +2211,21 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B81" s="15">
-        <v>-7.4999999999999993E-5</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
@@ -2241,21 +2236,21 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B82" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
@@ -2266,21 +2261,21 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>69</v>
+      </c>
+      <c r="B83" s="15">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
@@ -2291,21 +2286,21 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>71</v>
+      </c>
+      <c r="B84" s="15">
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
@@ -2316,21 +2311,21 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B85" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
@@ -2341,259 +2336,272 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="10">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="10">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="16"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="15">
+        <f>(B78-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+    </row>
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="12"/>
+      <c r="B90" s="16"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B92" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="9">
-        <v>1</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>16</v>
+      <c r="B97" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="9">
-        <v>0.73</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B99" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>85</v>
+      </c>
+      <c r="B101" s="9">
+        <v>1</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I101" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B102" s="9">
+        <v>0.73</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B103" s="9">
-        <v>2</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>22</v>
@@ -2602,209 +2610,209 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>89</v>
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B106" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="9">
         <v>2</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>6</v>
+      <c r="D107" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B110" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="9">
-        <v>1</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>39</v>
+      <c r="B115" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B116" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B119" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>89</v>
+      </c>
+      <c r="B119" s="9">
+        <v>1</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>39</v>
@@ -2812,39 +2820,39 @@
     </row>
     <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B120" s="9">
+        <v>0.65</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B121" s="9">
-        <v>2.48</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>22</v>
@@ -2853,252 +2861,252 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>86</v>
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B124" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="B125" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B128" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B133" s="9">
-        <v>1</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>16</v>
+      <c r="B133" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B134" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B137" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>86</v>
+      </c>
+      <c r="B137" s="9">
+        <v>1</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I137" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B138" s="9">
+        <v>0.98</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B139" s="9">
-        <v>1.82</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>22</v>
@@ -3107,249 +3115,249 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>90</v>
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B142" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="B143" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B146" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B151" s="9">
-        <v>1</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>16</v>
+      <c r="B151" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B152" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B154" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B155" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>90</v>
+      </c>
+      <c r="B155" s="9">
+        <v>1</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I155" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B156" s="9">
+        <v>2.1</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B157" s="9">
-        <v>0.13</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>21</v>
@@ -3362,250 +3370,250 @@
       </c>
     </row>
     <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>87</v>
+      <c r="A158" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B160" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B161" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>6</v>
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B164" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H168" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I168" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B169" s="9">
-        <v>1</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H169" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>16</v>
+      <c r="B169" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B170" s="9">
-        <v>2.35</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B171" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B172" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I172" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B173" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>87</v>
+      </c>
+      <c r="B173" s="9">
+        <v>1</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I173" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B174" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B174" s="9">
+        <v>2.35</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B175" s="9">
-        <v>0.22</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>21</v>
@@ -3617,209 +3625,209 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>91</v>
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B178" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="B179" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B182" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H186" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I186" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B187" s="9">
-        <v>1</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H187" s="9" t="s">
-        <v>39</v>
+      <c r="B187" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B188" s="9">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H188" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B189" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H189" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B190" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B191" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>91</v>
+      </c>
+      <c r="B191" s="9">
+        <v>1</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>39</v>
@@ -3827,39 +3835,39 @@
     </row>
     <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B192" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B192" s="9">
+        <v>2.3199999999999998</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B193" s="9">
-        <v>0.19</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>22</v>
@@ -3868,252 +3876,252 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>88</v>
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B196" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="B197" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B200" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G204" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H204" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I204" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B205" s="9">
-        <v>1</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H205" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I205" s="9" t="s">
-        <v>16</v>
+      <c r="B205" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B206" s="9">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F206" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B207" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H207" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B208" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I208" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B209" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>88</v>
+      </c>
+      <c r="B209" s="9">
+        <v>1</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H209" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I209" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B210" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B210" s="9">
+        <v>2.2599999999999998</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F210" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B211" s="9">
-        <v>0.06</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>22</v>
@@ -4122,746 +4130,832 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="7" t="s">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H212" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H214" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B217" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="9" t="s">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B218" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="9" t="s">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B219" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B220" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="9" t="s">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="9" t="s">
+      <c r="B221" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="9" t="s">
+      <c r="B222" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B223" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="9" t="s">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B224" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="7" t="s">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G222" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B223" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F223" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A224" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B224" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F224" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B225" s="9">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F225" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B227" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B228" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="9">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B226" s="9">
+      <c r="B230" s="9">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E226" s="9" t="s">
+      <c r="E230" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F226" s="9" t="s">
+      <c r="F230" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B227" s="9">
-        <v>1</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G227" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B228" s="13">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F228" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="13"/>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A230" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B231" s="9">
         <v>1</v>
       </c>
+      <c r="C231" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B232" s="13">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>6</v>
+      <c r="B233" s="13"/>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B235" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B236" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A237" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E238" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G238" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B239" s="9">
+      <c r="B243" s="9">
         <v>1</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" s="9" t="s">
+      <c r="C243" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G239" s="9" t="s">
+      <c r="G243" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="12" t="s">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B240" s="9">
+      <c r="B244" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" s="12" t="s">
+      <c r="C244" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="10" t="s">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B241" s="11">
+      <c r="B245" s="11">
         <v>1.9300000000000002E-9</v>
       </c>
-      <c r="C241" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="9" t="s">
+      <c r="C245" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F241" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" s="10" t="s">
+      <c r="F245" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="10" t="s">
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B242" s="11">
+      <c r="B246" s="11">
         <v>1.57</v>
       </c>
-      <c r="D242" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E242" s="9" t="s">
+      <c r="D246" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F242" s="9" t="s">
+      <c r="F246" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G242" s="10"/>
-    </row>
-    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B250" s="3"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B251" s="3"/>
-    </row>
-    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A253" s="1"/>
-      <c r="B253" s="2"/>
-    </row>
-    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="4"/>
-      <c r="G263" s="4"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B267" s="5"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B268" s="5"/>
-    </row>
-    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A269" s="1"/>
-      <c r="B269" s="2"/>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B255" s="3"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="4"/>
+      <c r="G267" s="4"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B271" s="6"/>
-    </row>
-    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="6"/>
-      <c r="G278" s="6"/>
-    </row>
-    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A279" s="4"/>
-      <c r="G279" s="4"/>
+      <c r="B271" s="5"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B275" s="6"/>
     </row>
     <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A280" s="4"/>
-      <c r="G280" s="4"/>
+      <c r="A280" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="6"/>
+      <c r="G282" s="6"/>
     </row>
     <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A283" s="1"/>
-      <c r="B283" s="2"/>
-    </row>
-    <row r="290" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B296" s="3"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B297" s="3"/>
-    </row>
-    <row r="299" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A299" s="1"/>
-      <c r="B299" s="2"/>
-    </row>
-    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A309" s="4"/>
-      <c r="G309" s="4"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B313" s="5"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B314" s="5"/>
-    </row>
-    <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A315" s="1"/>
-      <c r="B315" s="2"/>
+      <c r="A283" s="4"/>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="4"/>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="2"/>
+    </row>
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B300" s="3"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B301" s="3"/>
+    </row>
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="2"/>
+    </row>
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B317" s="6"/>
-    </row>
-    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A324" s="6"/>
-      <c r="G324" s="6"/>
-    </row>
-    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A325" s="4"/>
-      <c r="G325" s="4"/>
+      <c r="B317" s="5"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B318" s="5"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1"/>
+      <c r="B319" s="2"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B321" s="6"/>
     </row>
     <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A326" s="4"/>
-      <c r="G326" s="4"/>
+      <c r="A326" s="1"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="6"/>
+      <c r="G328" s="6"/>
     </row>
     <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A329" s="1"/>
-      <c r="B329" s="2"/>
-    </row>
-    <row r="336" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B342" s="3"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B343" s="3"/>
-    </row>
-    <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A345" s="1"/>
-      <c r="B345" s="2"/>
-    </row>
-    <row r="352" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A355" s="4"/>
-      <c r="G355" s="4"/>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B359" s="5"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B360" s="5"/>
-    </row>
-    <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
-      <c r="B361" s="2"/>
+      <c r="A329" s="4"/>
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="4"/>
+      <c r="G330" s="4"/>
+    </row>
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="2"/>
+    </row>
+    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B346" s="3"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="2"/>
+    </row>
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="4"/>
+      <c r="G359" s="4"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B363" s="6"/>
-    </row>
-    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="6"/>
-      <c r="G370" s="6"/>
-    </row>
-    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="4"/>
-      <c r="G371" s="4"/>
+      <c r="B363" s="5"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B364" s="5"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="2"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B367" s="6"/>
     </row>
     <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A372" s="4"/>
-      <c r="G372" s="4"/>
+      <c r="A372" s="1"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="6"/>
+      <c r="G374" s="6"/>
     </row>
     <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A375" s="1"/>
-      <c r="B375" s="2"/>
-    </row>
-    <row r="382" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B388" s="3"/>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B389" s="3"/>
-    </row>
-    <row r="391" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
-      <c r="B391" s="2"/>
-    </row>
-    <row r="398" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="4"/>
-      <c r="G401" s="4"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B405" s="5"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B406" s="5"/>
-    </row>
-    <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A407" s="1"/>
-      <c r="B407" s="2"/>
+      <c r="A375" s="4"/>
+      <c r="G375" s="4"/>
+    </row>
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="4"/>
+      <c r="G376" s="4"/>
+    </row>
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="2"/>
+    </row>
+    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B392" s="3"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B393" s="3"/>
+    </row>
+    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="2"/>
+    </row>
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A405" s="4"/>
+      <c r="G405" s="4"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B409" s="6"/>
-    </row>
-    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A414" s="1"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A416" s="6"/>
-      <c r="G416" s="6"/>
-    </row>
-    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="4"/>
-      <c r="G417" s="4"/>
+      <c r="B409" s="5"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="1"/>
+      <c r="B411" s="2"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B413" s="6"/>
     </row>
     <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A418" s="4"/>
-      <c r="G418" s="4"/>
+      <c r="A418" s="1"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" s="6"/>
+      <c r="G420" s="6"/>
     </row>
     <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A421" s="1"/>
-      <c r="B421" s="2"/>
-    </row>
-    <row r="428" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A428" s="1"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B434" s="3"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B435" s="3"/>
-    </row>
-    <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A437" s="1"/>
-      <c r="B437" s="2"/>
-    </row>
-    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="447" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A447" s="4"/>
-      <c r="G447" s="4"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B451" s="5"/>
-    </row>
-    <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A453" s="1"/>
-      <c r="B453" s="2"/>
+      <c r="A421" s="4"/>
+      <c r="G421" s="4"/>
+    </row>
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A422" s="4"/>
+      <c r="G422" s="4"/>
+    </row>
+    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="2"/>
+    </row>
+    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B438" s="3"/>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B439" s="3"/>
+    </row>
+    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="2"/>
+    </row>
+    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A451" s="4"/>
+      <c r="G451" s="4"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B455" s="6"/>
-    </row>
-    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A460" s="1"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A462" s="6"/>
-      <c r="G462" s="6"/>
-    </row>
-    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="4"/>
-      <c r="G463" s="4"/>
+      <c r="B455" s="5"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A457" s="1"/>
+      <c r="B457" s="2"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B459" s="6"/>
     </row>
     <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A464" s="4"/>
-      <c r="G464" s="4"/>
-    </row>
-    <row r="466" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A466" s="1"/>
-      <c r="B466" s="2"/>
-    </row>
-    <row r="473" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A473" s="1"/>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B479" s="3"/>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B480" s="3"/>
-    </row>
-    <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A482" s="1"/>
-      <c r="B482" s="2"/>
-    </row>
-    <row r="489" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" s="4"/>
-      <c r="G492" s="4"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B496" s="5"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B497" s="5"/>
-    </row>
-    <row r="498" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A498" s="1"/>
-      <c r="B498" s="2"/>
+      <c r="A464" s="1"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" s="6"/>
+      <c r="G466" s="6"/>
+    </row>
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A467" s="4"/>
+      <c r="G467" s="4"/>
+    </row>
+    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A468" s="4"/>
+      <c r="G468" s="4"/>
+    </row>
+    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A470" s="1"/>
+      <c r="B470" s="2"/>
+    </row>
+    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A477" s="1"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B483" s="3"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B484" s="3"/>
+    </row>
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A486" s="1"/>
+      <c r="B486" s="2"/>
+    </row>
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A493" s="1"/>
+    </row>
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A496" s="4"/>
+      <c r="G496" s="4"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B500" s="6"/>
-    </row>
-    <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A505" s="1"/>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A507" s="6"/>
-      <c r="G507" s="6"/>
-    </row>
-    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A508" s="4"/>
-      <c r="G508" s="4"/>
+      <c r="B500" s="5"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B501" s="5"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="1"/>
+      <c r="B502" s="2"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B504" s="6"/>
     </row>
     <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A509" s="4"/>
-      <c r="G509" s="4"/>
+      <c r="A509" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A511" s="6"/>
+      <c r="G511" s="6"/>
     </row>
     <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A512" s="1"/>
-      <c r="B512" s="2"/>
-    </row>
-    <row r="519" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B525" s="3"/>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B526" s="3"/>
-    </row>
-    <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A528" s="1"/>
-      <c r="B528" s="2"/>
-    </row>
-    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A538" s="4"/>
-      <c r="G538" s="4"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B542" s="5"/>
-    </row>
-    <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A544" s="1"/>
-      <c r="B544" s="2"/>
+      <c r="A512" s="4"/>
+      <c r="G512" s="4"/>
+    </row>
+    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A513" s="4"/>
+      <c r="G513" s="4"/>
+    </row>
+    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A516" s="1"/>
+      <c r="B516" s="2"/>
+    </row>
+    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A523" s="1"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B529" s="3"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B530" s="3"/>
+    </row>
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A532" s="1"/>
+      <c r="B532" s="2"/>
+    </row>
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="1"/>
+    </row>
+    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A542" s="4"/>
+      <c r="G542" s="4"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B546" s="6"/>
-    </row>
-    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A551" s="1"/>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A553" s="6"/>
-      <c r="G553" s="6"/>
-    </row>
-    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A554" s="4"/>
-      <c r="G554" s="4"/>
+      <c r="B546" s="5"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A548" s="1"/>
+      <c r="B548" s="2"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B550" s="6"/>
     </row>
     <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A555" s="4"/>
-      <c r="G555" s="4"/>
-    </row>
-    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A557" s="1"/>
-      <c r="B557" s="2"/>
-    </row>
-    <row r="563" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A563" s="1"/>
-    </row>
-    <row r="568" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A568" s="1"/>
-      <c r="B568" s="2"/>
-    </row>
-    <row r="574" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A574" s="1"/>
+      <c r="A555" s="1"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557" s="6"/>
+      <c r="G557" s="6"/>
+    </row>
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A558" s="4"/>
+      <c r="G558" s="4"/>
+    </row>
+    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A559" s="4"/>
+      <c r="G559" s="4"/>
+    </row>
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A561" s="1"/>
+      <c r="B561" s="2"/>
+    </row>
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A567" s="1"/>
+    </row>
+    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A572" s="1"/>
+      <c r="B572" s="2"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A578" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -147,19 +147,10 @@
     <t>Gas-to-liquid plant</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>Kerosene, synthetic</t>
   </si>
   <si>
     <t>Adapted from van der Giesen et al. 2014. LHV: 45 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 6%.</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
-    <t>soil</t>
   </si>
   <si>
     <t>Naphtha, synthetic</t>
@@ -322,6 +313,15 @@
 The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
 However, this means we need to reduce here the amount of CO2 sequestered during H2 production, as it effectively ends up in the fuel instead.
 We do that by adding a corresponding CO2 emission.</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
 </sst>
 </file>
@@ -737,37 +737,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -783,15 +783,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -807,12 +807,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -832,13 +832,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
@@ -847,9 +847,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -870,15 +870,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10">
         <v>1.00057</v>
@@ -898,10 +898,10 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -926,15 +926,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
@@ -948,18 +948,18 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>20</v>
@@ -973,12 +973,12 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B16" s="15">
         <v>1.04E-10</v>
@@ -998,18 +998,18 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
@@ -1023,18 +1023,18 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
@@ -1048,18 +1048,18 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -1073,21 +1073,21 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
@@ -1098,12 +1098,12 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1112,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
@@ -1123,18 +1123,18 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B22" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>25</v>
@@ -1148,12 +1148,12 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B23" s="15">
         <f>(B12-1)*3.14</f>
@@ -1175,20 +1175,20 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1204,15 +1204,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1228,12 +1228,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1253,13 +1253,13 @@
         <v>3</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>9</v>
@@ -1268,9 +1268,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
@@ -1291,15 +1291,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B34" s="10">
         <v>1.00057</v>
@@ -1322,7 +1322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1347,15 +1347,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>6</v>
@@ -1369,18 +1369,18 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>20</v>
@@ -1394,12 +1394,12 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B38" s="15">
         <v>2.5999999999999998E-10</v>
@@ -1419,18 +1419,18 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B39" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>6</v>
@@ -1444,18 +1444,18 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B40" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>25</v>
@@ -1469,18 +1469,18 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>6</v>
@@ -1494,21 +1494,21 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B42" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
@@ -1519,12 +1519,12 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B43" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1533,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
@@ -1544,18 +1544,18 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B44" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
@@ -1569,12 +1569,12 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B45" s="15">
         <f>(B34-1)*3.14</f>
@@ -1596,20 +1596,20 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1625,15 +1625,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1649,12 +1649,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1674,13 +1674,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>9</v>
@@ -1689,9 +1689,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
@@ -1712,15 +1712,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B56" s="10">
         <v>1.00057</v>
@@ -1740,10 +1740,10 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1768,15 +1768,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B58" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>6</v>
@@ -1790,18 +1790,18 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>20</v>
@@ -1815,12 +1815,12 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B60" s="15">
         <v>1.04E-10</v>
@@ -1840,18 +1840,18 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -1865,18 +1865,18 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B62" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>25</v>
@@ -1890,18 +1890,18 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>6</v>
@@ -1915,21 +1915,21 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B64" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
@@ -1940,12 +1940,12 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1954,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10" t="s">
@@ -1965,18 +1965,18 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B66" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>25</v>
@@ -1990,12 +1990,12 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B67" s="15">
         <f>(B56-1)*3.14</f>
@@ -2017,20 +2017,20 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2046,15 +2046,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2070,12 +2070,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2095,13 +2095,13 @@
         <v>3</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>9</v>
@@ -2110,9 +2110,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B77" s="10">
         <v>1</v>
@@ -2133,15 +2133,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B78" s="10">
         <v>1.00057</v>
@@ -2164,7 +2164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2189,15 +2189,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B80" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>6</v>
@@ -2211,18 +2211,18 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B81" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>20</v>
@@ -2236,12 +2236,12 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B82" s="15">
         <v>2.5999999999999998E-10</v>
@@ -2261,18 +2261,18 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B83" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>6</v>
@@ -2286,18 +2286,18 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B84" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>25</v>
@@ -2311,18 +2311,18 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B85" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>6</v>
@@ -2336,21 +2336,21 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B86" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
@@ -2361,12 +2361,12 @@
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B87" s="10">
         <v>3.2599999999999997E-2</v>
@@ -2375,7 +2375,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
@@ -2386,18 +2386,18 @@
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B88" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>25</v>
@@ -2411,12 +2411,12 @@
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B89" s="15">
         <f>(B78-1)*3.14</f>
@@ -2438,20 +2438,20 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2459,15 +2459,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2491,15 +2491,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2507,12 +2507,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2541,9 +2541,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B101" s="9">
         <v>1</v>
@@ -2558,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>39</v>
@@ -2567,9 +2567,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B102" s="9">
         <v>0.73</v>
@@ -2590,7 +2590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2676,9 +2676,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B107" s="9">
         <v>2</v>
@@ -2687,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>22</v>
@@ -2696,16 +2696,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2713,15 +2713,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2745,15 +2745,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2761,12 +2761,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2795,9 +2795,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B119" s="9">
         <v>1</v>
@@ -2812,15 +2812,15 @@
         <v>15</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B120" s="9">
         <v>0.65</v>
@@ -2841,7 +2841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2927,9 +2927,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B125" s="9">
         <v>2.48</v>
@@ -2938,7 +2938,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>22</v>
@@ -2947,16 +2947,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2996,15 +2996,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3012,12 +3012,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3046,9 +3046,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B137" s="9">
         <v>1</v>
@@ -3072,9 +3072,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B138" s="9">
         <v>0.98</v>
@@ -3095,7 +3095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3181,9 +3181,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B143" s="9">
         <v>1.82</v>
@@ -3192,7 +3192,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>22</v>
@@ -3201,16 +3201,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3250,15 +3250,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3266,12 +3266,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3300,9 +3300,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B155" s="9">
         <v>1</v>
@@ -3326,9 +3326,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B156" s="9">
         <v>2.1</v>
@@ -3349,7 +3349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3435,9 +3435,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B161" s="9">
         <v>0.13</v>
@@ -3455,18 +3455,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3474,15 +3474,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3506,15 +3506,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3522,12 +3522,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3556,9 +3556,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B173" s="9">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>15</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>39</v>
@@ -3582,9 +3582,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B174" s="9">
         <v>2.35</v>
@@ -3605,7 +3605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3691,9 +3691,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B179" s="9">
         <v>0.22</v>
@@ -3711,16 +3711,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3728,15 +3728,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3760,15 +3760,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3776,12 +3776,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3810,9 +3810,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B191" s="9">
         <v>1</v>
@@ -3827,15 +3827,15 @@
         <v>15</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B192" s="9">
         <v>2.3199999999999998</v>
@@ -3856,7 +3856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3942,9 +3942,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B197" s="9">
         <v>0.19</v>
@@ -3953,7 +3953,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>22</v>
@@ -3962,16 +3962,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4011,15 +4011,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4027,12 +4027,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4061,9 +4061,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B209" s="9">
         <v>1</v>
@@ -4087,9 +4087,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B210" s="9">
         <v>2.2599999999999998</v>
@@ -4110,7 +4110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4196,9 +4196,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B215" s="9">
         <v>0.06</v>
@@ -4207,7 +4207,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>22</v>
@@ -4216,16 +4216,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4281,12 +4281,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4309,9 +4309,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B227" s="9">
         <v>0.875</v>
@@ -4329,9 +4329,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B228" s="9">
         <v>0.125</v>
@@ -4346,10 +4346,10 @@
         <v>18</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4387,9 +4387,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B231" s="9">
         <v>1</v>
@@ -4407,7 +4407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4424,18 +4424,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4475,20 +4475,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4511,9 +4511,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B243" s="9">
         <v>1</v>
@@ -4531,9 +4531,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B244" s="9">
         <v>7.0000000000000007E-2</v>
@@ -4548,12 +4548,12 @@
         <v>18</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B245" s="11">
         <v>1.9300000000000002E-9</v>
@@ -4568,12 +4568,12 @@
         <v>18</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B246" s="11">
         <v>1.57</v>
@@ -4589,372 +4589,372 @@
       </c>
       <c r="G246" s="10"/>
     </row>
-    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -735,20 +735,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K578"/>
+  <dimension ref="A1:K577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -756,10 +756,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -791,7 +791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -807,12 +807,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -876,7 +876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
@@ -901,7 +901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -926,7 +926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -951,7 +951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -976,7 +976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
@@ -1175,12 +1175,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1228,12 +1228,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>83</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
@@ -1596,12 +1596,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1649,12 +1649,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>84</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>97</v>
       </c>
@@ -2017,12 +2017,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2070,12 +2070,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>85</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>97</v>
       </c>
@@ -2438,12 +2438,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2507,12 +2507,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>82</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -2696,8 +2696,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2761,12 +2761,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>86</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>99</v>
       </c>
@@ -2947,8 +2947,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3012,12 +3012,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>83</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>99</v>
       </c>
@@ -3201,8 +3201,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3266,12 +3266,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>87</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>97</v>
       </c>
@@ -3455,10 +3455,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3522,12 +3522,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>84</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>97</v>
       </c>
@@ -3711,8 +3711,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3776,12 +3776,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>88</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>99</v>
       </c>
@@ -3962,8 +3962,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4027,12 +4027,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>85</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>99</v>
       </c>
@@ -4216,8 +4216,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4281,12 +4281,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>89</v>
       </c>
@@ -4349,613 +4349,593 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B229" s="9">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F229" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B230" s="9">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
+      <c r="D229" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B230" s="9">
+        <v>1</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D230" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E230" s="9" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F230" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B231" s="13">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="13"/>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B242" s="9">
+        <v>1</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B243" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B244" s="11">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B245" s="11">
+        <v>1.57</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F245" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B231" s="9">
-        <v>1</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G231" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B232" s="13">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="13"/>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B235" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B240" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E242" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G242" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B243" s="9">
-        <v>1</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F243" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G243" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B244" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F244" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B245" s="11">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F245" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B246" s="11">
-        <v>1.57</v>
-      </c>
-      <c r="D246" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E246" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F246" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G246" s="10"/>
-    </row>
-    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G245" s="10"/>
+    </row>
+    <row r="247" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B255" s="3"/>
-    </row>
-    <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="2"/>
-    </row>
-    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="4"/>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B270" s="5"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B272" s="5"/>
-    </row>
-    <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="2"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B275" s="6"/>
-    </row>
-    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
-      <c r="G282" s="6"/>
-    </row>
-    <row r="283" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="1"/>
+      <c r="B272" s="2"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B274" s="6"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="6"/>
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="4"/>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
-      <c r="G284" s="4"/>
-    </row>
-    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="2"/>
+    </row>
+    <row r="293" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B299" s="3"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="3"/>
-    </row>
-    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="2"/>
-    </row>
-    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
-      <c r="G313" s="4"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="2"/>
+    </row>
+    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="312" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A312" s="4"/>
+      <c r="G312" s="4"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B316" s="5"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B318" s="5"/>
-    </row>
-    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
-      <c r="B319" s="2"/>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B321" s="6"/>
-    </row>
-    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="6"/>
-      <c r="G328" s="6"/>
-    </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="1"/>
+      <c r="B318" s="2"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B320" s="6"/>
+    </row>
+    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="6"/>
+      <c r="G327" s="6"/>
+    </row>
+    <row r="328" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A328" s="4"/>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="4"/>
-      <c r="G330" s="4"/>
-    </row>
-    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
-      <c r="B333" s="2"/>
-    </row>
-    <row r="340" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1"/>
+      <c r="B332" s="2"/>
+    </row>
+    <row r="339" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B345" s="3"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="3"/>
-    </row>
-    <row r="349" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
-      <c r="B349" s="2"/>
-    </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="359" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A359" s="4"/>
-      <c r="G359" s="4"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="1"/>
+      <c r="B348" s="2"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="358" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A358" s="4"/>
+      <c r="G358" s="4"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B362" s="5"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B364" s="5"/>
-    </row>
-    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
-      <c r="B365" s="2"/>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B367" s="6"/>
-    </row>
-    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="6"/>
-      <c r="G374" s="6"/>
-    </row>
-    <row r="375" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A364" s="1"/>
+      <c r="B364" s="2"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B366" s="6"/>
+    </row>
+    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" s="6"/>
+      <c r="G373" s="6"/>
+    </row>
+    <row r="374" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A374" s="4"/>
+      <c r="G374" s="4"/>
+    </row>
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
-      <c r="G376" s="4"/>
-    </row>
-    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="1"/>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A378" s="1"/>
+      <c r="B378" s="2"/>
+    </row>
+    <row r="385" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B391" s="3"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="3"/>
-    </row>
-    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
-      <c r="B395" s="2"/>
-    </row>
-    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="405" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="4"/>
-      <c r="G405" s="4"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="1"/>
+      <c r="B394" s="2"/>
+    </row>
+    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="404" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A404" s="4"/>
+      <c r="G404" s="4"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B408" s="5"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B410" s="5"/>
-    </row>
-    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
-      <c r="B411" s="2"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B413" s="6"/>
-    </row>
-    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="6"/>
-      <c r="G420" s="6"/>
-    </row>
-    <row r="421" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A410" s="1"/>
+      <c r="B410" s="2"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B412" s="6"/>
+    </row>
+    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" s="6"/>
+      <c r="G419" s="6"/>
+    </row>
+    <row r="420" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A420" s="4"/>
+      <c r="G420" s="4"/>
+    </row>
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="4"/>
-      <c r="G422" s="4"/>
-    </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
-      <c r="B425" s="2"/>
-    </row>
-    <row r="432" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A424" s="1"/>
+      <c r="B424" s="2"/>
+    </row>
+    <row r="431" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B437" s="3"/>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="3"/>
-    </row>
-    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
-      <c r="B441" s="2"/>
-    </row>
-    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A448" s="1"/>
-    </row>
-    <row r="451" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A451" s="4"/>
-      <c r="G451" s="4"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B455" s="5"/>
-    </row>
-    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A457" s="1"/>
-      <c r="B457" s="2"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B459" s="6"/>
-    </row>
-    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="1"/>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="6"/>
-      <c r="G466" s="6"/>
-    </row>
-    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A440" s="1"/>
+      <c r="B440" s="2"/>
+    </row>
+    <row r="447" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="450" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A450" s="4"/>
+      <c r="G450" s="4"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B454" s="5"/>
+    </row>
+    <row r="456" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="1"/>
+      <c r="B456" s="2"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B458" s="6"/>
+    </row>
+    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A463" s="1"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A465" s="6"/>
+      <c r="G465" s="6"/>
+    </row>
+    <row r="466" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="4"/>
+      <c r="G466" s="4"/>
+    </row>
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A468" s="4"/>
-      <c r="G468" s="4"/>
-    </row>
-    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A470" s="1"/>
-      <c r="B470" s="2"/>
-    </row>
-    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A469" s="1"/>
+      <c r="B469" s="2"/>
+    </row>
+    <row r="476" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B482" s="3"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B484" s="3"/>
-    </row>
-    <row r="486" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A486" s="1"/>
-      <c r="B486" s="2"/>
-    </row>
-    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A493" s="1"/>
-    </row>
-    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A496" s="4"/>
-      <c r="G496" s="4"/>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A485" s="1"/>
+      <c r="B485" s="2"/>
+    </row>
+    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="495" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A495" s="4"/>
+      <c r="G495" s="4"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B499" s="5"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B501" s="5"/>
-    </row>
-    <row r="502" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A502" s="1"/>
-      <c r="B502" s="2"/>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B504" s="6"/>
-    </row>
-    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" s="6"/>
-      <c r="G511" s="6"/>
-    </row>
-    <row r="512" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A501" s="1"/>
+      <c r="B501" s="2"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B503" s="6"/>
+    </row>
+    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A508" s="1"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A510" s="6"/>
+      <c r="G510" s="6"/>
+    </row>
+    <row r="511" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A511" s="4"/>
+      <c r="G511" s="4"/>
+    </row>
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A513" s="4"/>
-      <c r="G513" s="4"/>
-    </row>
-    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
-      <c r="B516" s="2"/>
-    </row>
-    <row r="523" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A515" s="1"/>
+      <c r="B515" s="2"/>
+    </row>
+    <row r="522" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B528" s="3"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B530" s="3"/>
-    </row>
-    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A532" s="1"/>
-      <c r="B532" s="2"/>
-    </row>
-    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="542" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="4"/>
-      <c r="G542" s="4"/>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B546" s="5"/>
-    </row>
-    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="1"/>
-      <c r="B548" s="2"/>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B550" s="6"/>
-    </row>
-    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="6"/>
-      <c r="G557" s="6"/>
-    </row>
-    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A531" s="1"/>
+      <c r="B531" s="2"/>
+    </row>
+    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A538" s="1"/>
+    </row>
+    <row r="541" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A541" s="4"/>
+      <c r="G541" s="4"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B545" s="5"/>
+    </row>
+    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A547" s="1"/>
+      <c r="B547" s="2"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B549" s="6"/>
+    </row>
+    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="1"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556" s="6"/>
+      <c r="G556" s="6"/>
+    </row>
+    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A557" s="4"/>
+      <c r="G557" s="4"/>
+    </row>
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A559" s="4"/>
-      <c r="G559" s="4"/>
-    </row>
-    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A561" s="1"/>
-      <c r="B561" s="2"/>
-    </row>
-    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A567" s="1"/>
-    </row>
-    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A572" s="1"/>
-      <c r="B572" s="2"/>
-    </row>
-    <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="1"/>
+    <row r="560" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A560" s="1"/>
+      <c r="B560" s="2"/>
+    </row>
+    <row r="566" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="571" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A571" s="1"/>
+      <c r="B571" s="2"/>
+    </row>
+    <row r="577" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A577" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -737,18 +737,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -756,10 +756,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -791,7 +791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -807,12 +807,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -876,7 +876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
@@ -901,7 +901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -926,7 +926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -951,7 +951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -976,7 +976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
@@ -1175,12 +1175,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1228,12 +1228,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>83</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
@@ -1596,12 +1596,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1649,12 +1649,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>84</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>97</v>
       </c>
@@ -2017,12 +2017,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2070,12 +2070,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>85</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>97</v>
       </c>
@@ -2438,12 +2438,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2507,12 +2507,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>82</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -2696,8 +2696,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2761,12 +2761,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>86</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>99</v>
       </c>
@@ -2947,8 +2947,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3012,12 +3012,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>83</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>99</v>
       </c>
@@ -3201,8 +3201,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3266,12 +3266,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>87</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>97</v>
       </c>
@@ -3455,10 +3455,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3522,12 +3522,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>84</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>97</v>
       </c>
@@ -3711,8 +3711,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3776,12 +3776,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>88</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>99</v>
       </c>
@@ -3962,8 +3962,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4027,12 +4027,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>85</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>99</v>
       </c>
@@ -4216,8 +4216,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4281,12 +4281,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>89</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>91</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4424,10 +4424,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
@@ -4483,12 +4483,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>89</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>52</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>97</v>
       </c>
@@ -4589,372 +4589,372 @@
       </c>
       <c r="G246" s="10"/>
     </row>
-    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K577"/>
+  <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4351,591 +4351,611 @@
     </row>
     <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="9">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B229" s="9">
+      <c r="B230" s="9">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E229" s="9" t="s">
+      <c r="E230" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F229" s="9" t="s">
+      <c r="F230" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B230" s="9">
-        <v>1</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F230" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G230" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B231" s="9">
+        <v>1</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B231" s="13">
+      <c r="B232" s="13">
         <v>5.7100000000000004E-6</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C232" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="D232" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F231" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="13"/>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A233" s="7" t="s">
+      <c r="F232" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="13"/>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B234" s="8" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B234" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="B235" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B239" s="17" t="s">
+      <c r="B240" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="7" t="s">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E241" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F241" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G241" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B242" s="9">
+      <c r="B243" s="9">
         <v>1</v>
       </c>
-      <c r="C242" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F242" s="9" t="s">
+      <c r="C243" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G242" s="9" t="s">
+      <c r="G243" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A243" s="12" t="s">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B243" s="9">
+      <c r="B244" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C243" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F243" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" s="12" t="s">
+      <c r="C244" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="12" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B244" s="11">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F244" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B245" s="11">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B245" s="11">
+      <c r="B246" s="11">
         <v>1.57</v>
       </c>
-      <c r="D245" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E245" s="9" t="s">
+      <c r="D246" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F245" s="9" t="s">
+      <c r="F246" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G245" s="10"/>
-    </row>
-    <row r="247" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B253" s="3"/>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
     </row>
-    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A256" s="1"/>
-      <c r="B256" s="2"/>
-    </row>
-    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A266" s="4"/>
-      <c r="G266" s="4"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B270" s="5"/>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B255" s="3"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="4"/>
+      <c r="G267" s="4"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A272" s="1"/>
-      <c r="B272" s="2"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B274" s="6"/>
-    </row>
-    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="6"/>
-      <c r="G281" s="6"/>
-    </row>
-    <row r="282" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A282" s="4"/>
-      <c r="G282" s="4"/>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B275" s="6"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="6"/>
+      <c r="G282" s="6"/>
     </row>
     <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="286" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A286" s="1"/>
-      <c r="B286" s="2"/>
-    </row>
-    <row r="293" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B299" s="3"/>
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="4"/>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="2"/>
+    </row>
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
     </row>
-    <row r="302" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A302" s="1"/>
-      <c r="B302" s="2"/>
-    </row>
-    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="312" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A312" s="4"/>
-      <c r="G312" s="4"/>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B316" s="5"/>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B301" s="3"/>
+    </row>
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="2"/>
+    </row>
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A318" s="1"/>
-      <c r="B318" s="2"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B320" s="6"/>
-    </row>
-    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A327" s="6"/>
-      <c r="G327" s="6"/>
-    </row>
-    <row r="328" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A328" s="4"/>
-      <c r="G328" s="4"/>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B318" s="5"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1"/>
+      <c r="B319" s="2"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B321" s="6"/>
+    </row>
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="6"/>
+      <c r="G328" s="6"/>
     </row>
     <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="332" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A332" s="1"/>
-      <c r="B332" s="2"/>
-    </row>
-    <row r="339" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B345" s="3"/>
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="4"/>
+      <c r="G330" s="4"/>
+    </row>
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="2"/>
+    </row>
+    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
     </row>
-    <row r="348" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A348" s="1"/>
-      <c r="B348" s="2"/>
-    </row>
-    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="358" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A358" s="4"/>
-      <c r="G358" s="4"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B362" s="5"/>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="2"/>
+    </row>
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="4"/>
+      <c r="G359" s="4"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
-      <c r="B364" s="2"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B366" s="6"/>
-    </row>
-    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" s="6"/>
-      <c r="G373" s="6"/>
-    </row>
-    <row r="374" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A374" s="4"/>
-      <c r="G374" s="4"/>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B364" s="5"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="2"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B367" s="6"/>
+    </row>
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="6"/>
+      <c r="G374" s="6"/>
     </row>
     <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="378" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A378" s="1"/>
-      <c r="B378" s="2"/>
-    </row>
-    <row r="385" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B391" s="3"/>
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="4"/>
+      <c r="G376" s="4"/>
+    </row>
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="2"/>
+    </row>
+    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A386" s="1"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
     </row>
-    <row r="394" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A394" s="1"/>
-      <c r="B394" s="2"/>
-    </row>
-    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="404" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A404" s="4"/>
-      <c r="G404" s="4"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B408" s="5"/>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B393" s="3"/>
+    </row>
+    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="2"/>
+    </row>
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A405" s="4"/>
+      <c r="G405" s="4"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A410" s="1"/>
-      <c r="B410" s="2"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B412" s="6"/>
-    </row>
-    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A419" s="6"/>
-      <c r="G419" s="6"/>
-    </row>
-    <row r="420" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A420" s="4"/>
-      <c r="G420" s="4"/>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="1"/>
+      <c r="B411" s="2"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B413" s="6"/>
+    </row>
+    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" s="6"/>
+      <c r="G420" s="6"/>
     </row>
     <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A424" s="1"/>
-      <c r="B424" s="2"/>
-    </row>
-    <row r="431" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B437" s="3"/>
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A422" s="4"/>
+      <c r="G422" s="4"/>
+    </row>
+    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="2"/>
+    </row>
+    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="1"/>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
     </row>
-    <row r="440" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A440" s="1"/>
-      <c r="B440" s="2"/>
-    </row>
-    <row r="447" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="450" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A450" s="4"/>
-      <c r="G450" s="4"/>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B454" s="5"/>
-    </row>
-    <row r="456" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A456" s="1"/>
-      <c r="B456" s="2"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B458" s="6"/>
-    </row>
-    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="1"/>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A465" s="6"/>
-      <c r="G465" s="6"/>
-    </row>
-    <row r="466" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A466" s="4"/>
-      <c r="G466" s="4"/>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B439" s="3"/>
+    </row>
+    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="2"/>
+    </row>
+    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A451" s="4"/>
+      <c r="G451" s="4"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B455" s="5"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A457" s="1"/>
+      <c r="B457" s="2"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B459" s="6"/>
+    </row>
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" s="6"/>
+      <c r="G466" s="6"/>
     </row>
     <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="469" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A469" s="1"/>
-      <c r="B469" s="2"/>
-    </row>
-    <row r="476" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A476" s="1"/>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B482" s="3"/>
+    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A468" s="4"/>
+      <c r="G468" s="4"/>
+    </row>
+    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A470" s="1"/>
+      <c r="B470" s="2"/>
+    </row>
+    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A477" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
     </row>
-    <row r="485" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A485" s="1"/>
-      <c r="B485" s="2"/>
-    </row>
-    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" s="1"/>
-    </row>
-    <row r="495" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A495" s="4"/>
-      <c r="G495" s="4"/>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B499" s="5"/>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B484" s="3"/>
+    </row>
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A486" s="1"/>
+      <c r="B486" s="2"/>
+    </row>
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A493" s="1"/>
+    </row>
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A496" s="4"/>
+      <c r="G496" s="4"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A501" s="1"/>
-      <c r="B501" s="2"/>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B503" s="6"/>
-    </row>
-    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A508" s="1"/>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A510" s="6"/>
-      <c r="G510" s="6"/>
-    </row>
-    <row r="511" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A511" s="4"/>
-      <c r="G511" s="4"/>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B501" s="5"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="1"/>
+      <c r="B502" s="2"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B504" s="6"/>
+    </row>
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A509" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A511" s="6"/>
+      <c r="G511" s="6"/>
     </row>
     <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="515" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A515" s="1"/>
-      <c r="B515" s="2"/>
-    </row>
-    <row r="522" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B528" s="3"/>
+    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A513" s="4"/>
+      <c r="G513" s="4"/>
+    </row>
+    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A516" s="1"/>
+      <c r="B516" s="2"/>
+    </row>
+    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A523" s="1"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
     </row>
-    <row r="531" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A531" s="1"/>
-      <c r="B531" s="2"/>
-    </row>
-    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="541" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A541" s="4"/>
-      <c r="G541" s="4"/>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B545" s="5"/>
-    </row>
-    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A547" s="1"/>
-      <c r="B547" s="2"/>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B549" s="6"/>
-    </row>
-    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A554" s="1"/>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A556" s="6"/>
-      <c r="G556" s="6"/>
-    </row>
-    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A557" s="4"/>
-      <c r="G557" s="4"/>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B530" s="3"/>
+    </row>
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A532" s="1"/>
+      <c r="B532" s="2"/>
+    </row>
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="1"/>
+    </row>
+    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A542" s="4"/>
+      <c r="G542" s="4"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B546" s="5"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A548" s="1"/>
+      <c r="B548" s="2"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B550" s="6"/>
+    </row>
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A555" s="1"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557" s="6"/>
+      <c r="G557" s="6"/>
     </row>
     <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="560" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A560" s="1"/>
-      <c r="B560" s="2"/>
-    </row>
-    <row r="566" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A566" s="1"/>
-    </row>
-    <row r="571" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A571" s="1"/>
-      <c r="B571" s="2"/>
-    </row>
-    <row r="577" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A577" s="1"/>
+    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A559" s="4"/>
+      <c r="G559" s="4"/>
+    </row>
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A561" s="1"/>
+      <c r="B561" s="2"/>
+    </row>
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A567" s="1"/>
+    </row>
+    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A572" s="1"/>
+      <c r="B572" s="2"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A578" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFFFA2A-61B8-FC41-BBDD-649333C45C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -327,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -734,21 +747,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -756,10 +769,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -767,7 +780,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -775,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -783,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -791,7 +804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -799,7 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -807,12 +820,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -847,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -876,7 +889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
@@ -901,7 +914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -926,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -951,7 +964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -976,7 +989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1001,7 +1014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1026,7 +1039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1051,7 +1064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1126,7 +1139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1151,7 +1164,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
@@ -1175,12 +1188,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1201,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1228,12 +1241,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1297,7 +1310,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>83</v>
       </c>
@@ -1322,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1372,7 +1385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1397,7 +1410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1422,7 +1435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1497,7 +1510,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1547,7 +1560,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1572,7 +1585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
@@ -1596,12 +1609,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1649,12 +1662,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>84</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1768,7 +1781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1793,7 +1806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1818,7 +1831,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +1856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1868,7 +1881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1893,7 +1906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1918,7 +1931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1943,7 +1956,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1968,7 +1981,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -1993,7 +2006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>97</v>
       </c>
@@ -2017,12 +2030,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2070,12 +2083,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2139,7 +2152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>85</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2214,7 +2227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2239,7 +2252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2264,7 +2277,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2289,7 +2302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2314,7 +2327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2339,7 +2352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2364,7 +2377,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2414,7 +2427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>97</v>
       </c>
@@ -2438,12 +2451,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2467,7 +2480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2499,7 +2512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2507,12 +2520,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2541,7 +2554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>82</v>
       </c>
@@ -2567,7 +2580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2590,7 +2603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +2689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -2696,8 +2709,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2718,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2713,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2721,7 +2734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +2750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +2758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2753,7 +2766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2761,12 +2774,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2795,7 +2808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>86</v>
       </c>
@@ -2818,7 +2831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2841,7 +2854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2881,7 +2894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2904,7 +2917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +2940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>99</v>
       </c>
@@ -2947,8 +2960,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2969,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2964,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +2985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +3001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2996,7 +3009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +3017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3012,12 +3025,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>83</v>
       </c>
@@ -3072,7 +3085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3158,7 +3171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3181,7 +3194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>99</v>
       </c>
@@ -3201,8 +3214,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3266,12 +3279,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>87</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3349,7 +3362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3369,7 +3382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3389,7 +3402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3412,7 +3425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>97</v>
       </c>
@@ -3455,10 +3468,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3482,7 +3495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +3503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3527,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3522,12 +3535,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>84</v>
       </c>
@@ -3582,7 +3595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3605,7 +3618,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3645,7 +3658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3668,7 +3681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3691,7 +3704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>97</v>
       </c>
@@ -3711,8 +3724,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3728,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3736,7 +3749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3744,7 +3757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3752,7 +3765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3760,7 +3773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3776,12 +3789,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>88</v>
       </c>
@@ -3833,7 +3846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3856,7 +3869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3876,7 +3889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3896,7 +3909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3942,7 +3955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>99</v>
       </c>
@@ -3962,8 +3975,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3987,7 +4000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3995,7 +4008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4003,7 +4016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4011,7 +4024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4027,12 +4040,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>85</v>
       </c>
@@ -4087,7 +4100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4110,7 +4123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4130,7 +4143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4150,7 +4163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4173,7 +4186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4196,7 +4209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>99</v>
       </c>
@@ -4216,8 +4229,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4225,7 +4238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4241,7 +4254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4249,7 +4262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4273,7 +4286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4281,12 +4294,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4309,7 +4322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
         <v>89</v>
       </c>
@@ -4349,7 +4362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4369,7 +4382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4387,7 +4400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>91</v>
       </c>
@@ -4407,7 +4420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4423,11 +4436,14 @@
       <c r="F232" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G232" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
@@ -4435,7 +4451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4451,7 +4467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4459,7 +4475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4475,7 +4491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
@@ -4483,12 +4499,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4511,7 +4527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
@@ -4531,7 +4547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="12" t="s">
         <v>89</v>
       </c>
@@ -4551,7 +4567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
         <v>52</v>
       </c>
@@ -4571,7 +4587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
         <v>97</v>
       </c>
@@ -4589,372 +4605,372 @@
       </c>
       <c r="G246" s="10"/>
     </row>
-    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFFFA2A-61B8-FC41-BBDD-649333C45C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -340,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -747,21 +734,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="G232" sqref="G232"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -769,10 +756,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -780,7 +767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -788,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -796,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -804,7 +791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -812,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -820,12 +807,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -860,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -889,7 +876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
@@ -914,7 +901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -939,7 +926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -964,7 +951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -989,7 +976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1014,7 +1001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1039,7 +1026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1064,7 +1051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1089,7 +1076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1114,7 +1101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1139,7 +1126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1164,7 +1151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
@@ -1188,12 +1175,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1241,12 +1228,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1310,7 +1297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>83</v>
       </c>
@@ -1335,7 +1322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1385,7 +1372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1410,7 +1397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1422,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1460,7 +1447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1485,7 +1472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1510,7 +1497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1535,7 +1522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1560,7 +1547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1585,7 +1572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
@@ -1609,12 +1596,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1638,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1662,12 +1649,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1731,7 +1718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>84</v>
       </c>
@@ -1756,7 +1743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1781,7 +1768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1806,7 +1793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1831,7 +1818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1856,7 +1843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1881,7 +1868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1906,7 +1893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1931,7 +1918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1956,7 +1943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1981,7 +1968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -2006,7 +1993,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>97</v>
       </c>
@@ -2030,12 +2017,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2043,7 +2030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2059,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2067,7 +2054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2075,7 +2062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2083,12 +2070,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2152,7 +2139,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>85</v>
       </c>
@@ -2177,7 +2164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2202,7 +2189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2227,7 +2214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2252,7 +2239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2277,7 +2264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2302,7 +2289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2327,7 +2314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2352,7 +2339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2377,7 +2364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2402,7 +2389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2427,7 +2414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>97</v>
       </c>
@@ -2451,12 +2438,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2464,7 +2451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2480,7 +2467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2488,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2512,7 +2499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2520,12 +2507,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2554,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>82</v>
       </c>
@@ -2580,7 +2567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2603,7 +2590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2623,7 +2610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2643,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2666,7 +2653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2689,7 +2676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -2709,8 +2696,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2726,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2742,7 +2729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2750,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2758,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2766,7 +2753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2774,12 +2761,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2808,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>86</v>
       </c>
@@ -2831,7 +2818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2854,7 +2841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2874,7 +2861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2894,7 +2881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2917,7 +2904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2940,7 +2927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>99</v>
       </c>
@@ -2960,8 +2947,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2969,7 +2956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2977,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2985,7 +2972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2993,7 +2980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -3001,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +2996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3025,12 +3012,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3059,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>83</v>
       </c>
@@ -3085,7 +3072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3108,7 +3095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3128,7 +3115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3148,7 +3135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3171,7 +3158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3194,7 +3181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>99</v>
       </c>
@@ -3214,8 +3201,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +3210,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3231,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3239,7 +3226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3247,7 +3234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3271,7 +3258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3279,12 +3266,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3313,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>87</v>
       </c>
@@ -3339,7 +3326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3362,7 +3349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3382,7 +3369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3402,7 +3389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3425,7 +3412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3448,7 +3435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>97</v>
       </c>
@@ -3468,10 +3455,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3479,7 +3466,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3487,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3495,7 +3482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3503,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3511,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +3506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3535,12 +3522,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3569,7 +3556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>84</v>
       </c>
@@ -3595,7 +3582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3618,7 +3605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3638,7 +3625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3658,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3681,7 +3668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3704,7 +3691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>97</v>
       </c>
@@ -3724,8 +3711,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3720,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3741,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +3736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3757,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3765,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3773,7 +3760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3789,12 +3776,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3823,7 +3810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>88</v>
       </c>
@@ -3846,7 +3833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3869,7 +3856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3889,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3909,7 +3896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3932,7 +3919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3955,7 +3942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>99</v>
       </c>
@@ -3975,8 +3962,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +3971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3992,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -4000,7 +3987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -4008,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4016,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4024,7 +4011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4032,7 +4019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4040,12 +4027,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4074,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>85</v>
       </c>
@@ -4100,7 +4087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4123,7 +4110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4143,7 +4130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4163,7 +4150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4186,7 +4173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4209,7 +4196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>99</v>
       </c>
@@ -4229,8 +4216,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4238,7 +4225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4246,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4254,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4262,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4270,7 +4257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4278,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4286,7 +4273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4294,12 +4281,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4322,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4342,7 +4329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>89</v>
       </c>
@@ -4362,7 +4349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4382,7 +4369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4400,7 +4387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>91</v>
       </c>
@@ -4420,7 +4407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4436,14 +4423,11 @@
       <c r="F232" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G232" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
@@ -4451,7 +4435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4467,7 +4451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4475,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4483,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4491,7 +4475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
@@ -4499,12 +4483,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4527,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
@@ -4547,7 +4531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>89</v>
       </c>
@@ -4567,7 +4551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>52</v>
       </c>
@@ -4587,7 +4571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>97</v>
       </c>
@@ -4605,372 +4589,372 @@
       </c>
       <c r="G246" s="10"/>
     </row>
-    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67454B1-EB66-7747-8402-FD16EC5F4603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -309,25 +322,24 @@
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation, at fuelling station</t>
   </si>
   <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
 The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
-However, this means we need to reduce here the amount of CO2 sequestered during H2 production, as it effectively ends up in the fuel instead.
-We do that by adding a corresponding CO2 emission.</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, non-fossil</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, in air</t>
+The CO2, instead of being stored underground, is embodied in teh fuel, hence no correction is needed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -734,21 +746,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -756,10 +768,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -767,7 +779,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -775,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -783,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -791,7 +803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -799,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -807,12 +819,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -847,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -876,7 +888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
@@ -901,7 +913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -926,7 +938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -951,7 +963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -976,7 +988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1151,9 +1163,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="15">
         <f>(B12-1)*3.14</f>
@@ -1175,12 +1187,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1228,12 +1240,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1297,7 +1309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>83</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1422,7 +1434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1522,7 +1534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1572,9 +1584,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="15">
         <f>(B34-1)*3.14</f>
@@ -1596,12 +1608,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1649,12 +1661,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>84</v>
       </c>
@@ -1743,7 +1755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1768,7 +1780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1793,7 +1805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +1855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1893,7 +1905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -1993,9 +2005,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="15">
         <f>(B56-1)*3.14</f>
@@ -2017,12 +2029,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2070,12 +2082,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2139,7 +2151,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>85</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2289,7 +2301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2339,7 +2351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2389,7 +2401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2414,9 +2426,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="15">
         <f>(B78-1)*3.14</f>
@@ -2438,12 +2450,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2507,12 +2519,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2541,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>82</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2590,7 +2602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2676,9 +2688,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="9">
         <v>2</v>
@@ -2687,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>22</v>
@@ -2696,8 +2708,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2717,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2713,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2721,7 +2733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2761,12 +2773,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2795,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>86</v>
       </c>
@@ -2818,7 +2830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2841,7 +2853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2881,7 +2893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2927,9 +2939,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B125" s="9">
         <v>2.48</v>
@@ -2938,7 +2950,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>22</v>
@@ -2947,8 +2959,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2964,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +2984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +3000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2996,7 +3008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +3016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3012,12 +3024,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>83</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3095,7 +3107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3181,9 +3193,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B143" s="9">
         <v>1.82</v>
@@ -3192,7 +3204,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>22</v>
@@ -3201,8 +3213,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3258,7 +3270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3266,12 +3278,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>87</v>
       </c>
@@ -3326,7 +3338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3349,7 +3361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3369,7 +3381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3412,7 +3424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3435,9 +3447,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B161" s="9">
         <v>0.13</v>
@@ -3455,10 +3467,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3482,7 +3494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3522,12 +3534,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>84</v>
       </c>
@@ -3582,7 +3594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3668,7 +3680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3691,9 +3703,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B179" s="9">
         <v>0.22</v>
@@ -3711,8 +3723,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3732,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3728,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3736,7 +3748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3744,7 +3756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3752,7 +3764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3760,7 +3772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3776,12 +3788,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>88</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3876,7 +3888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3896,7 +3908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3919,7 +3931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3942,9 +3954,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B197" s="9">
         <v>0.19</v>
@@ -3953,7 +3965,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>22</v>
@@ -3962,8 +3974,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3995,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4003,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4011,7 +4023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4027,12 +4039,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>85</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4130,7 +4142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4150,7 +4162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4173,7 +4185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4196,9 +4208,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B215" s="9">
         <v>0.06</v>
@@ -4207,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>22</v>
@@ -4216,8 +4228,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4241,7 +4253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4249,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4273,7 +4285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4281,12 +4293,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4309,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4329,7 +4341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
         <v>89</v>
       </c>
@@ -4349,7 +4361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4369,7 +4381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4387,7 +4399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>91</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4424,10 +4436,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4475,20 +4487,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4511,7 +4523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
@@ -4531,7 +4543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="12" t="s">
         <v>89</v>
       </c>
@@ -4551,7 +4563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
         <v>52</v>
       </c>
@@ -4571,12 +4583,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B246" s="11">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>6</v>
@@ -4589,372 +4601,372 @@
       </c>
       <c r="G246" s="10"/>
     </row>
-    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E3C3ED-7C6B-FA46-AB51-25B869F120AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA6CA0-68AB-4F44-BA41-78DB8A08CE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34220" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="105">
   <si>
     <t>Activity</t>
   </si>
@@ -139,15 +139,6 @@
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.</t>
   </si>
   <si>
-    <t>Carbon monoxide, from RWGS</t>
-  </si>
-  <si>
-    <t>Diesel, synthetic</t>
-  </si>
-  <si>
-    <t>Lubricating oil, synthetic</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -163,15 +154,9 @@
     <t>Gas-to-liquid plant</t>
   </si>
   <si>
-    <t>Kerosene, synthetic</t>
-  </si>
-  <si>
     <t>Adapted from van der Giesen et al. 2014. LHV: 45 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 6%.</t>
   </si>
   <si>
-    <t>Naphtha, synthetic</t>
-  </si>
-  <si>
     <t>Adapted from van der Giesen et al. 2014. LHV: 44.5 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 7%.</t>
   </si>
   <si>
@@ -292,19 +277,7 @@
     <t>Diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation</t>
   </si>
   <si>
-    <t>Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, economic allocation</t>
-  </si>
-  <si>
-    <t>Lubricating oil production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation</t>
-  </si>
-  <si>
-    <t>Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation</t>
-  </si>
-  <si>
     <t>hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, with CCS, at gasification plant</t>
-  </si>
-  <si>
-    <t>Carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from wood gasification, with CCS</t>
   </si>
   <si>
     <t>Syngas, RWGS, Production, for Fischer Tropsch process, hydrogen from wood gasification, with CCS</t>
@@ -337,6 +310,48 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
+    <t>naphtha, synthetic</t>
+  </si>
+  <si>
+    <t>diesel, synthetic</t>
+  </si>
+  <si>
+    <t>lubricating oil, synthetic</t>
+  </si>
+  <si>
+    <t>syngas, RWGS, Production</t>
+  </si>
+  <si>
+    <t>carbon monoxide, from RWGS</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, economic allocation</t>
+  </si>
+  <si>
+    <t>naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, economic allocation</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, economic allocation</t>
+  </si>
+  <si>
+    <t>syngas, RWGS, Production, for Fischer Tropsch process, hydrogen from wood gasification, with CCS</t>
+  </si>
+  <si>
+    <t>lubricating oil production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation</t>
+  </si>
+  <si>
+    <t>naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation</t>
+  </si>
+  <si>
+    <t>carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from wood gasification, with CCS</t>
   </si>
 </sst>
 </file>
@@ -754,11 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G579" sqref="G579"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,6 +780,7 @@
     <col min="1" max="1" width="69.33203125" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -773,21 +788,21 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -795,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -803,15 +818,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -819,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -827,12 +842,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -852,13 +867,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>9</v>
@@ -867,9 +882,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -887,15 +902,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="8">
         <v>1.00057</v>
@@ -910,10 +925,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -933,15 +948,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>6</v>
@@ -950,18 +965,18 @@
         <v>18</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>20</v>
@@ -970,12 +985,12 @@
         <v>18</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9">
         <v>1.04E-10</v>
@@ -990,18 +1005,18 @@
         <v>18</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
@@ -1010,18 +1025,18 @@
         <v>18</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>25</v>
@@ -1030,18 +1045,18 @@
         <v>18</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B19" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
@@ -1050,32 +1065,32 @@
         <v>18</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B20" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1084,24 +1099,24 @@
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B22" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>25</v>
@@ -1110,12 +1125,12 @@
         <v>18</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B23" s="9">
         <f>(B12-1)*3.14</f>
@@ -1131,20 +1146,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="13"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
@@ -1160,15 +1175,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -1184,12 +1199,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>11</v>
       </c>
@@ -1209,13 +1224,13 @@
         <v>3</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>9</v>
@@ -1224,9 +1239,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
@@ -1244,15 +1259,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="B34" s="8">
         <v>1.00057</v>
@@ -1267,10 +1282,10 @@
         <v>18</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -1290,15 +1305,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>6</v>
@@ -1307,18 +1322,18 @@
         <v>18</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B37" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>20</v>
@@ -1327,12 +1342,12 @@
         <v>18</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B38" s="9">
         <v>2.5999999999999998E-10</v>
@@ -1347,18 +1362,18 @@
         <v>18</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B39" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>6</v>
@@ -1367,18 +1382,18 @@
         <v>18</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B40" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>25</v>
@@ -1387,18 +1402,18 @@
         <v>18</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B41" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>6</v>
@@ -1407,32 +1422,32 @@
         <v>18</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B42" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B43" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1441,24 +1456,24 @@
         <v>8</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B44" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>25</v>
@@ -1467,12 +1482,12 @@
         <v>18</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B45" s="9">
         <f>(B34-1)*3.14</f>
@@ -1488,20 +1503,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="13"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>1</v>
       </c>
@@ -1517,15 +1532,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>3</v>
       </c>
@@ -1533,7 +1548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>5</v>
       </c>
@@ -1541,12 +1556,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>11</v>
       </c>
@@ -1566,13 +1581,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>9</v>
@@ -1581,9 +1596,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B55" s="8">
         <v>1</v>
@@ -1601,15 +1616,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B56" s="8">
         <v>1.00057</v>
@@ -1624,10 +1639,10 @@
         <v>18</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>27</v>
       </c>
@@ -1647,15 +1662,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B58" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>6</v>
@@ -1664,18 +1679,18 @@
         <v>18</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B59" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>20</v>
@@ -1684,12 +1699,12 @@
         <v>18</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" s="9">
         <v>1.04E-10</v>
@@ -1704,18 +1719,18 @@
         <v>18</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>6</v>
@@ -1724,18 +1739,18 @@
         <v>18</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B62" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>25</v>
@@ -1744,18 +1759,18 @@
         <v>18</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B63" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>6</v>
@@ -1764,32 +1779,32 @@
         <v>18</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B64" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B65" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1798,24 +1813,24 @@
         <v>8</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B66" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>25</v>
@@ -1824,12 +1839,12 @@
         <v>18</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B67" s="9">
         <f>(B56-1)*3.14</f>
@@ -1845,20 +1860,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="13"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>1</v>
       </c>
@@ -1874,15 +1889,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>5</v>
       </c>
@@ -1898,12 +1913,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>11</v>
       </c>
@@ -1923,13 +1938,13 @@
         <v>3</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>9</v>
@@ -1938,9 +1953,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -1958,15 +1973,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B78" s="8">
         <v>1.00057</v>
@@ -1981,10 +1996,10 @@
         <v>18</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>27</v>
       </c>
@@ -2004,15 +2019,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B80" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>6</v>
@@ -2021,18 +2036,18 @@
         <v>18</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B81" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>20</v>
@@ -2041,12 +2056,12 @@
         <v>18</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B82" s="9">
         <v>2.5999999999999998E-10</v>
@@ -2061,18 +2076,18 @@
         <v>18</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B83" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>6</v>
@@ -2081,18 +2096,18 @@
         <v>18</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B84" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>25</v>
@@ -2101,18 +2116,18 @@
         <v>18</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B85" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>6</v>
@@ -2121,32 +2136,32 @@
         <v>18</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B86" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B87" s="8">
         <v>3.2599999999999997E-2</v>
@@ -2155,24 +2170,24 @@
         <v>8</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B88" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>25</v>
@@ -2181,12 +2196,12 @@
         <v>18</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B89" s="9">
         <f>(B78-1)*3.14</f>
@@ -2202,20 +2217,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="13"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>1</v>
       </c>
@@ -2223,15 +2238,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>3</v>
       </c>
@@ -2239,7 +2254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>5</v>
       </c>
@@ -2247,7 +2262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>7</v>
       </c>
@@ -2255,28 +2270,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>11</v>
       </c>
@@ -2305,9 +2320,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B101" s="8">
         <v>1</v>
@@ -2322,18 +2337,18 @@
         <v>15</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B102" s="8">
         <v>0.73</v>
@@ -2351,10 +2366,10 @@
         <v>17</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>19</v>
       </c>
@@ -2374,7 +2389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>24</v>
       </c>
@@ -2394,9 +2409,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B105" s="9">
         <v>6.7000000000000001E-12</v>
@@ -2411,13 +2426,13 @@
         <v>18</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>27</v>
       </c>
@@ -2440,9 +2455,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B107" s="8">
         <v>2</v>
@@ -2451,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>22</v>
@@ -2460,16 +2475,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>1</v>
       </c>
@@ -2477,15 +2492,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>3</v>
       </c>
@@ -2493,7 +2508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>5</v>
       </c>
@@ -2501,7 +2516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>7</v>
       </c>
@@ -2509,28 +2524,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>11</v>
       </c>
@@ -2559,9 +2574,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
@@ -2576,15 +2591,15 @@
         <v>15</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B120" s="8">
         <v>0.65</v>
@@ -2599,13 +2614,13 @@
         <v>18</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>19</v>
       </c>
@@ -2625,7 +2640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>24</v>
       </c>
@@ -2645,9 +2660,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B123" s="9">
         <v>6.7000000000000001E-12</v>
@@ -2662,13 +2677,13 @@
         <v>18</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>27</v>
       </c>
@@ -2691,9 +2706,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B125" s="8">
         <v>2.48</v>
@@ -2702,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>22</v>
@@ -2711,16 +2726,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>1</v>
       </c>
@@ -2728,15 +2743,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>3</v>
       </c>
@@ -2744,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>5</v>
       </c>
@@ -2752,7 +2767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>7</v>
       </c>
@@ -2760,28 +2775,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>11</v>
       </c>
@@ -2810,9 +2825,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B137" s="8">
         <v>1</v>
@@ -2827,18 +2842,18 @@
         <v>15</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I137" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B138" s="8">
         <v>0.98</v>
@@ -2853,13 +2868,13 @@
         <v>18</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>19</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>24</v>
       </c>
@@ -2899,9 +2914,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B141" s="9">
         <v>6.7000000000000001E-12</v>
@@ -2916,13 +2931,13 @@
         <v>18</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>27</v>
       </c>
@@ -2945,9 +2960,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B143" s="8">
         <v>1.82</v>
@@ -2956,7 +2971,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>22</v>
@@ -2965,16 +2980,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>1</v>
       </c>
@@ -2982,15 +2997,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>3</v>
       </c>
@@ -2998,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>7</v>
       </c>
@@ -3014,28 +3029,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>11</v>
       </c>
@@ -3064,9 +3079,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B155" s="8">
         <v>1</v>
@@ -3081,18 +3096,18 @@
         <v>15</v>
       </c>
       <c r="G155" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H155" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H155" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="I155" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B156" s="8">
         <v>2.1</v>
@@ -3107,13 +3122,13 @@
         <v>18</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>19</v>
       </c>
@@ -3133,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>24</v>
       </c>
@@ -3153,9 +3168,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B159" s="9">
         <v>6.7000000000000001E-12</v>
@@ -3170,13 +3185,13 @@
         <v>18</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>27</v>
       </c>
@@ -3199,9 +3214,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B161" s="8">
         <v>0.13</v>
@@ -3219,18 +3234,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9"/>
     </row>
-    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>1</v>
       </c>
@@ -3238,15 +3253,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>3</v>
       </c>
@@ -3254,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>5</v>
       </c>
@@ -3262,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>7</v>
       </c>
@@ -3270,28 +3285,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>11</v>
       </c>
@@ -3320,9 +3335,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B173" s="8">
         <v>1</v>
@@ -3337,18 +3352,18 @@
         <v>15</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B174" s="8">
         <v>2.35</v>
@@ -3363,13 +3378,13 @@
         <v>18</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>19</v>
       </c>
@@ -3389,7 +3404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>24</v>
       </c>
@@ -3409,9 +3424,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B177" s="9">
         <v>6.7000000000000001E-12</v>
@@ -3426,13 +3441,13 @@
         <v>18</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>27</v>
       </c>
@@ -3455,9 +3470,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B179" s="8">
         <v>0.22</v>
@@ -3475,16 +3490,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>1</v>
       </c>
@@ -3492,15 +3507,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>3</v>
       </c>
@@ -3508,7 +3523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>5</v>
       </c>
@@ -3516,7 +3531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>7</v>
       </c>
@@ -3524,28 +3539,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>11</v>
       </c>
@@ -3574,9 +3589,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B191" s="8">
         <v>1</v>
@@ -3591,15 +3606,15 @@
         <v>15</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B192" s="8">
         <v>2.3199999999999998</v>
@@ -3614,13 +3629,13 @@
         <v>18</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>19</v>
       </c>
@@ -3640,7 +3655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>24</v>
       </c>
@@ -3660,9 +3675,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B195" s="9">
         <v>6.7000000000000001E-12</v>
@@ -3677,13 +3692,13 @@
         <v>18</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>27</v>
       </c>
@@ -3706,9 +3721,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B197" s="8">
         <v>0.19</v>
@@ -3717,7 +3732,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F197" s="8" t="s">
         <v>22</v>
@@ -3726,16 +3741,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>1</v>
       </c>
@@ -3743,15 +3758,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>3</v>
       </c>
@@ -3759,7 +3774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>5</v>
       </c>
@@ -3767,7 +3782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>7</v>
       </c>
@@ -3775,28 +3790,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>11</v>
       </c>
@@ -3825,9 +3840,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B209" s="8">
         <v>1</v>
@@ -3842,18 +3857,18 @@
         <v>15</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I209" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B210" s="8">
         <v>2.2599999999999998</v>
@@ -3868,13 +3883,13 @@
         <v>18</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>19</v>
       </c>
@@ -3894,7 +3909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>24</v>
       </c>
@@ -3914,9 +3929,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B213" s="9">
         <v>6.7000000000000001E-12</v>
@@ -3931,13 +3946,13 @@
         <v>18</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
         <v>27</v>
       </c>
@@ -3960,9 +3975,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B215" s="8">
         <v>0.06</v>
@@ -3971,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F215" s="8" t="s">
         <v>22</v>
@@ -3980,16 +3995,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>1</v>
       </c>
@@ -3997,15 +4012,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>3</v>
       </c>
@@ -4013,7 +4028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>5</v>
       </c>
@@ -4021,7 +4036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>7</v>
       </c>
@@ -4029,7 +4044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>9</v>
       </c>
@@ -4037,20 +4052,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>11</v>
       </c>
@@ -4073,9 +4088,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B227" s="8">
         <v>0.875</v>
@@ -4090,12 +4105,12 @@
         <v>18</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B228" s="8">
         <v>0.125</v>
@@ -4110,10 +4125,10 @@
         <v>18</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>27</v>
       </c>
@@ -4133,7 +4148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>24</v>
       </c>
@@ -4151,9 +4166,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B231" s="8">
         <v>1</v>
@@ -4171,7 +4186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>31</v>
       </c>
@@ -4188,18 +4203,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="11"/>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>1</v>
       </c>
@@ -4207,15 +4222,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>3</v>
       </c>
@@ -4223,7 +4238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +4246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>7</v>
       </c>
@@ -4239,20 +4254,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>11</v>
       </c>
@@ -4275,9 +4290,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
@@ -4292,12 +4307,12 @@
         <v>15</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B244" s="8">
         <v>7.0000000000000007E-2</v>
@@ -4312,12 +4327,12 @@
         <v>18</v>
       </c>
       <c r="G244" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B245" s="9">
         <v>1.9300000000000002E-9</v>
@@ -4332,12 +4347,12 @@
         <v>18</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B246" s="9">
         <v>0</v>
@@ -4352,573 +4367,327 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="257" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="294" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B301" s="3"/>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="303" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="313" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="333" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B347" s="3"/>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="349" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="379" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
     </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B393" s="3"/>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="395" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="402" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="405" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="418" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="421" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="425" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="441" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="448" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B455" s="5"/>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="467" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="470" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="477" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B484" s="3"/>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="509" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="512" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="516" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="523" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B530" s="3"/>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="532" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="539" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="542" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B546" s="5"/>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="548" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="555" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="558" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="561" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="567" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="572" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="577" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="578" spans="1:1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K578" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, with CCS, at gasification plant"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K578" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
